--- a/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
+++ b/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CESTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\indst\CESTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD9528C9-AEE9-4389-BD47-49B38BB0C3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="50940" yWindow="570" windowWidth="15915" windowHeight="9750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CESTR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Source:</t>
   </si>
@@ -53,12 +54,24 @@
   </si>
   <si>
     <t>Tax Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>Texas Comptroller</t>
+  </si>
+  <si>
+    <t>https://comptroller.texas.gov/taxes/sales/faq/local.php</t>
+  </si>
+  <si>
+    <t>NOTES FOR TX UPDATE:</t>
+  </si>
+  <si>
+    <t>updated to TX sales tax rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,6 +219,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,81 +463,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="51.86328125" customWidth="1"/>
+    <col min="2" max="2" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{EE0E57B8-B102-C647-B194-14D418B22891}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>6.8000000000000005E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
